--- a/biology/Médecine/Pauline_Lautaud/Pauline_Lautaud.xlsx
+++ b/biology/Médecine/Pauline_Lautaud/Pauline_Lautaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pauline Lautaud, née à Pignan le 9 novembre 1864 et décédée à Montpellier le 05 août 1897, est la troisième femme et la première française diplômée de la faculté de Médecine de Montpellier[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pauline Lautaud, née à Pignan le 9 novembre 1864 et décédée à Montpellier le 05 août 1897, est la troisième femme et la première française diplômée de la faculté de Médecine de Montpellier.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Pignan, dans l'Hérault, le 9 novembre 1864, Pauline Léonie Lautaud obtient son baccalauréat es-Lettres en 1886. L'année suivante, elle s'inscrit à la Faculté de médecine de Montpellier. En 1894, elle soutient sa thèse intitulée Contribution à l'étude de la dystocie cervicale[2], sous la présidence du professeur Grynfeldt. Le jury comportait également deux agrégés : Estor et Lapeyre. Son travail retient diverses causes de la dystocie cervicale dont la syphilis, ce qui avait déjà été abordé à Paris dans la thèse de Madame E.M. Mesnerd en 1884-1885. Pauline Lautaud est la troisième femme et la première française diplômée de la faculté de Médecine de Montpellier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Pignan, dans l'Hérault, le 9 novembre 1864, Pauline Léonie Lautaud obtient son baccalauréat es-Lettres en 1886. L'année suivante, elle s'inscrit à la Faculté de médecine de Montpellier. En 1894, elle soutient sa thèse intitulée Contribution à l'étude de la dystocie cervicale, sous la présidence du professeur Grynfeldt. Le jury comportait également deux agrégés : Estor et Lapeyre. Son travail retient diverses causes de la dystocie cervicale dont la syphilis, ce qui avait déjà été abordé à Paris dans la thèse de Madame E.M. Mesnerd en 1884-1885. Pauline Lautaud est la troisième femme et la première française diplômée de la faculté de Médecine de Montpellier.
 </t>
         </is>
       </c>
